--- a/experiments/meth1-logs/chunk-size/50g-pq/compare.xlsx
+++ b/experiments/meth1-logs/chunk-size/50g-pq/compare.xlsx
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="43">
   <si>
     <t>Predicted</t>
   </si>
@@ -385,6 +385,9 @@
   <si>
     <t>Old-Method</t>
   </si>
+  <si>
+    <t>Size</t>
+  </si>
 </sst>
 </file>
 
@@ -464,8 +467,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="219">
+  <cellStyleXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -703,7 +718,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="219">
+  <cellStyles count="231">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -813,6 +828,12 @@
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -922,6 +943,12 @@
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -954,7 +981,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Read Time for 50GB File at Various Chunk Size</a:t>
+              <a:t>Old: Time for 50GB File at Various Chunk Size</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1145,11 +1172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075540280"/>
-        <c:axId val="2075534328"/>
+        <c:axId val="-2128250920"/>
+        <c:axId val="-2127729768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075540280"/>
+        <c:axId val="-2128250920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075534328"/>
+        <c:crossAx val="-2127729768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1186,7 +1213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075534328"/>
+        <c:axId val="-2127729768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075540280"/>
+        <c:crossAx val="-2128250920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1268,6 +1295,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>New:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Predicted</a:t>
             </a:r>
             <a:r>
@@ -1404,11 +1439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075395704"/>
-        <c:axId val="2075389960"/>
+        <c:axId val="2134701208"/>
+        <c:axId val="2134706888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075395704"/>
+        <c:axId val="2134701208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075389960"/>
+        <c:crossAx val="2134706888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1450,7 +1485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075389960"/>
+        <c:axId val="2134706888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075395704"/>
+        <c:crossAx val="2134701208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1529,7 +1564,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Predicted vs Observed Disk Time</a:t>
+              <a:t>New-LS vs Model-V0: Disk (50GB)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -1645,11 +1680,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075362200"/>
-        <c:axId val="2075356504"/>
+        <c:axId val="2134734440"/>
+        <c:axId val="2134740120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075362200"/>
+        <c:axId val="2134734440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,7 +1718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075356504"/>
+        <c:crossAx val="2134740120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1691,7 +1726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075356504"/>
+        <c:axId val="2134740120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075362200"/>
+        <c:crossAx val="2134734440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1765,7 +1800,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Predicted vs Observed Network Time</a:t>
+              <a:t>New-LS vs Model-V0: Network (50GB)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -1881,11 +1916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075328296"/>
-        <c:axId val="2075322808"/>
+        <c:axId val="2134767864"/>
+        <c:axId val="2134773288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075328296"/>
+        <c:axId val="2134767864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,7 +1949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075322808"/>
+        <c:crossAx val="2134773288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1922,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075322808"/>
+        <c:axId val="2134773288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +1987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075328296"/>
+        <c:crossAx val="2134767864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2212,11 +2247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082877928"/>
-        <c:axId val="2104420088"/>
+        <c:axId val="2134656344"/>
+        <c:axId val="2134617432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082877928"/>
+        <c:axId val="2134656344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104420088"/>
+        <c:crossAx val="2134617432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2253,7 +2288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104420088"/>
+        <c:axId val="2134617432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082877928"/>
+        <c:crossAx val="2134656344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2550,11 +2585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2103594600"/>
-        <c:axId val="2092996712"/>
+        <c:axId val="2134569880"/>
+        <c:axId val="2134575336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2103594600"/>
+        <c:axId val="2134569880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,7 +2618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092996712"/>
+        <c:crossAx val="2134575336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2591,7 +2626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092996712"/>
+        <c:axId val="2134575336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +2656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103594600"/>
+        <c:crossAx val="2134569880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2644,6 +2679,1214 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>New-LS vs Model-V1 (50GB)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Observed</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>All!$B$29:$B$3811</c:f>
+              <c:strCache>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1,000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2,000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3,000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4,000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5,000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6,000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7,000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8,000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10,000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Chunk</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1,000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2,000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3,000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4,000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5,000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6,000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7,000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8,000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10,000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chunk</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1,000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2,000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3,000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4,000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5,000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6,000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7,000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8,000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10,000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50,000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$F$74:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11102.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5902.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3285.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2465.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2046.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1789.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1645.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1556.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1551.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1331.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>All!$B$29:$B$3811</c:f>
+              <c:strCache>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1,000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2,000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3,000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4,000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5,000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6,000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7,000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8,000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10,000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Chunk</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1,000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2,000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3,000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4,000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5,000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6,000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7,000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8,000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10,000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chunk</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1,000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2,000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3,000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4,000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5,000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6,000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7,000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8,000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10,000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50,000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$C$74:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11720.86720867209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6165.311653116531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3387.533875338753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2461.607949412828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1998.644986449865</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1720.867208672087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1535.682023486901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1403.40689121177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1304.20054200542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1165.311653116531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2108791752"/>
+        <c:axId val="-2108748728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2108791752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk Size (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2108748728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2108748728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Read Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2108791752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>New:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Predicted</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Observed Total Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.118533679810898"/>
+          <c:y val="0.151495016611296"/>
+          <c:w val="0.865561747624489"/>
+          <c:h val="0.758803986710964"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$B$29:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$I$74:$I$83</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0557437586625911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0446139703687787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0312127474394987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.00137608543090162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.0231451679130672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.0380842880536129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.066454696968449</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.0980675506351096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.159122796901728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.124484107350465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2113009448"/>
+        <c:axId val="-2107689512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2113009448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size (MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2107689512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2107689512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2113009448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>New-LS vs Model-V1: Disk (50G)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Disk Error</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$B$29:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$J$74:$J$83</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0230283685766606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0175010175010175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0101010101010102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0248278821211944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.0506569453937875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.0694211799739438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.113097772101603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.164578111946533</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.262014405478805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.219725343320849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2107288392"/>
+        <c:axId val="2138418616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2107288392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2138418616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2138418616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2107288392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>New-LS vs Model-V1: Network (50G)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Network Error</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$B$29:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$K$74:$K$83</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.540650406504065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.379538682264651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.137604659628686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0773075928639144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0458938208593063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0248001639680262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.014569213911773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00619818079368905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.000399840063974421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.0149336065250798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2119583208"/>
+        <c:axId val="-2129798008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2119583208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk Size (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2129798008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2129798008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119583208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3014,11 +4257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2074974712"/>
-        <c:axId val="2074980456"/>
+        <c:axId val="2134471032"/>
+        <c:axId val="2134476760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2074974712"/>
+        <c:axId val="2134471032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +4294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074980456"/>
+        <c:crossAx val="2134476760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3059,7 +4302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074980456"/>
+        <c:axId val="2134476760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3089,7 +4332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074974712"/>
+        <c:crossAx val="2134471032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3106,7 +4349,260 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Old: Predicted</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Observed Total Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.118533679810898"/>
+          <c:y val="0.151495016611296"/>
+          <c:w val="0.865561747624489"/>
+          <c:h val="0.758803986710964"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.342321361830498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.141603795264939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00153490392308697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0667298178382974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.153641792721581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.187317105372141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.245418315899539</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.297810094734103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.313745757857899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2128022264"/>
+        <c:axId val="-2127927016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2128022264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size (MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2127927016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2127927016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128022264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3472,11 +4968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075015528"/>
-        <c:axId val="2075021192"/>
+        <c:axId val="2134095832"/>
+        <c:axId val="2134087928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075015528"/>
+        <c:axId val="2134095832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +5005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075021192"/>
+        <c:crossAx val="2134087928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3517,7 +5013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075021192"/>
+        <c:axId val="2134087928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3548,7 +5044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075015528"/>
+        <c:crossAx val="2134095832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3565,7 +5061,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3657,11 +5153,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075291704"/>
-        <c:axId val="2075285928"/>
+        <c:axId val="-2128009080"/>
+        <c:axId val="-2128010296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075291704"/>
+        <c:axId val="-2128009080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,7 +5190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075285928"/>
+        <c:crossAx val="-2128010296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3702,7 +5198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075285928"/>
+        <c:axId val="-2128010296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3732,7 +5228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075291704"/>
+        <c:crossAx val="-2128009080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3749,7 +5245,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3836,11 +5332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075258200"/>
-        <c:axId val="2075252456"/>
+        <c:axId val="2133964840"/>
+        <c:axId val="2133970600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075258200"/>
+        <c:axId val="2133964840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3873,7 +5369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075252456"/>
+        <c:crossAx val="2133970600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3881,7 +5377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075252456"/>
+        <c:axId val="2133970600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3912,7 +5408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075258200"/>
+        <c:crossAx val="2133964840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3929,7 +5425,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3954,7 +5450,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>New: Disk Read Times (500MB)</a:t>
+              <a:t>New-LS: Disk (500MB)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4295,11 +5791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2089195096"/>
-        <c:axId val="2089201528"/>
+        <c:axId val="2134016472"/>
+        <c:axId val="2134021912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2089195096"/>
+        <c:axId val="2134016472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +5823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089201528"/>
+        <c:crossAx val="2134021912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4335,7 +5831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089201528"/>
+        <c:axId val="2134021912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4366,7 +5862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089195096"/>
+        <c:crossAx val="2134016472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4383,7 +5879,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4408,266 +5904,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Predicted</a:t>
+              <a:t>New-LS: Network</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs Observed Total Time</a:t>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.118533679810898"/>
-          <c:y val="0.151495016611296"/>
-          <c:w val="0.865561747624489"/>
-          <c:h val="0.758803986710964"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>All!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Error</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>All!$B$3:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6000.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7000.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>All!$I$3:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.342321361830498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.141603795264939</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00153490392308697</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.0667298178382974</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.153641792721581</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.187317105372141</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.245418315899539</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.297810094734103</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.313745757857899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2074743240"/>
-        <c:axId val="2074748920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2074743240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Chunk</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Size (MB)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074748920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2074748920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Error</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074743240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>New:</a:t>
+              <a:t>(500MB)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Network Times (500MB)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5007,11 +6253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095631992"/>
-        <c:axId val="2091285144"/>
+        <c:axId val="2134051784"/>
+        <c:axId val="2134057464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095631992"/>
+        <c:axId val="2134051784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5044,7 +6290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091285144"/>
+        <c:crossAx val="2134057464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5052,7 +6298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091285144"/>
+        <c:axId val="2134057464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -5083,7 +6329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095631992"/>
+        <c:crossAx val="2134051784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5100,7 +6346,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5187,11 +6433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094743256"/>
-        <c:axId val="2091662168"/>
+        <c:axId val="-2128408584"/>
+        <c:axId val="-2128402792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094743256"/>
+        <c:axId val="-2128408584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5224,7 +6470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091662168"/>
+        <c:crossAx val="-2128402792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5232,7 +6478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091662168"/>
+        <c:axId val="-2128402792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5262,7 +6508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094743256"/>
+        <c:crossAx val="-2128408584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5279,7 +6525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5351,11 +6597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101287160"/>
-        <c:axId val="2088863752"/>
+        <c:axId val="2134080312"/>
+        <c:axId val="2134086104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101287160"/>
+        <c:axId val="2134080312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5388,7 +6634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088863752"/>
+        <c:crossAx val="2134086104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5396,7 +6642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088863752"/>
+        <c:axId val="2134086104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5426,7 +6672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101287160"/>
+        <c:crossAx val="2134080312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5443,7 +6689,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5468,8 +6714,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>New: Disk Read Times (10GB)</a:t>
+              <a:t>New-LS:</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Disk (10GB)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5524,11 +6775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095648088"/>
-        <c:axId val="2088685400"/>
+        <c:axId val="2135674584"/>
+        <c:axId val="2135825704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095648088"/>
+        <c:axId val="2135674584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5561,7 +6812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088685400"/>
+        <c:crossAx val="2135825704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5569,7 +6820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088685400"/>
+        <c:axId val="2135825704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5599,7 +6850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095648088"/>
+        <c:crossAx val="2135674584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5616,7 +6867,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5641,11 +6892,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>New:</a:t>
+              <a:t>New-LS:</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Network Times (10GB)</a:t>
+              <a:t> Network (10GB)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5701,11 +6952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091327848"/>
-        <c:axId val="2093032360"/>
+        <c:axId val="2135891048"/>
+        <c:axId val="2135896728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091327848"/>
+        <c:axId val="2135891048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5738,7 +6989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093032360"/>
+        <c:crossAx val="2135896728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5746,7 +6997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093032360"/>
+        <c:axId val="2135896728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -5777,7 +7028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091327848"/>
+        <c:crossAx val="2135891048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5821,7 +7072,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Predicted vs Observed Network Time</a:t>
+              <a:t>Old: Predicted vs Observed Network Time</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -5931,11 +7182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2074782264"/>
-        <c:axId val="2074787704"/>
+        <c:axId val="-2127650584"/>
+        <c:axId val="2137000840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2074782264"/>
+        <c:axId val="-2127650584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5964,7 +7215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074787704"/>
+        <c:crossAx val="2137000840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5972,7 +7223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074787704"/>
+        <c:axId val="2137000840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6002,7 +7253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074782264"/>
+        <c:crossAx val="-2127650584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6046,7 +7297,7 @@
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Predicted vs Observed Disk Time</a:t>
+              <a:t>Old: Predicted vs Observed Disk Time</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -6156,11 +7407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2074816488"/>
-        <c:axId val="2074822216"/>
+        <c:axId val="2138176584"/>
+        <c:axId val="2138131832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2074816488"/>
+        <c:axId val="2138176584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6194,7 +7445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074822216"/>
+        <c:crossAx val="2138131832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6202,7 +7453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074822216"/>
+        <c:axId val="2138131832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6232,7 +7483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074816488"/>
+        <c:crossAx val="2138176584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6274,7 +7525,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Read Time for 50GB File at Various Chunk Size</a:t>
+              <a:t>Time for 50GB File at Various Chunk Size</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6477,11 +7728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2074855080"/>
-        <c:axId val="2074860536"/>
+        <c:axId val="2138097240"/>
+        <c:axId val="2138077352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2074855080"/>
+        <c:axId val="2138097240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6510,7 +7761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074860536"/>
+        <c:crossAx val="2138077352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6518,7 +7769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074860536"/>
+        <c:axId val="2138077352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6553,7 +7804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074855080"/>
+        <c:crossAx val="2138097240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6600,7 +7851,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Read Time for 50GB File at Various Chunk Size</a:t>
+              <a:t>New-LS vs Model-V0 (50GB)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6628,7 +7879,7 @@
             <c:strRef>
               <c:f>All!$B$29:$B$3811</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -6691,6 +7942,48 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>10,000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chunk</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1,000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2,000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3,000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4,000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5,000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6,000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7,000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8,000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10,000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50,000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6749,7 +8042,7 @@
             <c:strRef>
               <c:f>All!$B$29:$B$3811</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="59"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -6812,6 +8105,48 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>10,000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Chunk</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1,000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2,000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3,000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4,000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5,000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6,000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7,000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8,000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10,000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50,000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6867,11 +8202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2074892504"/>
-        <c:axId val="2074897976"/>
+        <c:axId val="2134595320"/>
+        <c:axId val="2134500072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2074892504"/>
+        <c:axId val="2134595320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6900,7 +8235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074897976"/>
+        <c:crossAx val="2134500072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6908,7 +8243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074897976"/>
+        <c:axId val="2134500072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6943,7 +8278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074892504"/>
+        <c:crossAx val="2134595320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7126,11 +8461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075501048"/>
-        <c:axId val="2075495304"/>
+        <c:axId val="2134814744"/>
+        <c:axId val="2134820424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075501048"/>
+        <c:axId val="2134814744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7164,7 +8499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075495304"/>
+        <c:crossAx val="2134820424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7172,7 +8507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075495304"/>
+        <c:axId val="2134820424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7207,7 +8542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075501048"/>
+        <c:crossAx val="2134814744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7367,11 +8702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075464520"/>
-        <c:axId val="2075458776"/>
+        <c:axId val="2134847720"/>
+        <c:axId val="2134853400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075464520"/>
+        <c:axId val="2134847720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7405,7 +8740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075458776"/>
+        <c:crossAx val="2134853400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7413,7 +8748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075458776"/>
+        <c:axId val="2134853400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7443,7 +8778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075464520"/>
+        <c:crossAx val="2134847720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7603,11 +8938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075431176"/>
-        <c:axId val="2075425688"/>
+        <c:axId val="2134880920"/>
+        <c:axId val="2134783928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075431176"/>
+        <c:axId val="2134880920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7636,7 +8971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075425688"/>
+        <c:crossAx val="2134783928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7644,7 +8979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075425688"/>
+        <c:axId val="2134783928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7674,7 +9009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075431176"/>
+        <c:crossAx val="2134880920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8137,6 +9472,134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8474,11 +9937,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="12" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8490,19 +9953,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="15" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="15" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="16" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="16" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8510,35 +9973,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad" connectionId="12" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.bad_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8863,10 +10326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10365,6 +11828,494 @@
       </c>
       <c r="D52">
         <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="B74" s="10">
+        <v>500</v>
+      </c>
+      <c r="C74" s="10">
+        <f>SUM(D74:E74)</f>
+        <v>11720.867208672087</v>
+      </c>
+      <c r="D74" s="10">
+        <f>$B$85/B74*($B$85/$B$86)</f>
+        <v>11111.111111111111</v>
+      </c>
+      <c r="E74" s="10">
+        <f>$B$85/$B$87</f>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="F74" s="10">
+        <v>11102</v>
+      </c>
+      <c r="G74" s="10">
+        <v>10861</v>
+      </c>
+      <c r="H74" s="10">
+        <v>240</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" ref="I74:I83" si="6">C74/F74 - 1</f>
+        <v>5.574375866259107E-2</v>
+      </c>
+      <c r="J74" s="15">
+        <f t="shared" ref="J74:J83" si="7">D74/G74 - 1</f>
+        <v>2.3028368576660574E-2</v>
+      </c>
+      <c r="K74" s="15">
+        <f t="shared" ref="K74:K83" si="8">E74/H74 - 1</f>
+        <v>1.5406504065040649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="B75" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C75" s="10">
+        <f>SUM(D75:E75)</f>
+        <v>6165.3116531165315</v>
+      </c>
+      <c r="D75" s="10">
+        <f>$B$85/B75*($B$85/$B$86)</f>
+        <v>5555.5555555555557</v>
+      </c>
+      <c r="E75" s="10">
+        <f>$B$85/$B$87</f>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="F75" s="10">
+        <v>5902</v>
+      </c>
+      <c r="G75" s="10">
+        <v>5460</v>
+      </c>
+      <c r="H75" s="10">
+        <v>442</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="6"/>
+        <v>4.4613970368778677E-2</v>
+      </c>
+      <c r="J75" s="15">
+        <f t="shared" si="7"/>
+        <v>1.7501017501017513E-2</v>
+      </c>
+      <c r="K75" s="15">
+        <f t="shared" si="8"/>
+        <v>0.37953868226465071</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="B76" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C76" s="10">
+        <f>SUM(D76:E76)</f>
+        <v>3387.5338753387532</v>
+      </c>
+      <c r="D76" s="10">
+        <f>$B$85/B76*($B$85/$B$86)</f>
+        <v>2777.7777777777778</v>
+      </c>
+      <c r="E76" s="10">
+        <f>$B$85/$B$87</f>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="F76" s="10">
+        <v>3285</v>
+      </c>
+      <c r="G76" s="10">
+        <v>2750</v>
+      </c>
+      <c r="H76" s="10">
+        <v>536</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="6"/>
+        <v>3.1212747439498756E-2</v>
+      </c>
+      <c r="J76" s="15">
+        <f t="shared" si="7"/>
+        <v>1.0101010101010166E-2</v>
+      </c>
+      <c r="K76" s="15">
+        <f t="shared" si="8"/>
+        <v>0.13760465962868573</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="B77" s="10">
+        <v>3000</v>
+      </c>
+      <c r="C77" s="10">
+        <f>SUM(D77:E77)</f>
+        <v>2461.6079494128276</v>
+      </c>
+      <c r="D77" s="10">
+        <f>$B$85/B77*($B$85/$B$86)</f>
+        <v>1851.851851851852</v>
+      </c>
+      <c r="E77" s="10">
+        <f>$B$85/$B$87</f>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="F77" s="10">
+        <v>2465</v>
+      </c>
+      <c r="G77" s="10">
+        <v>1899</v>
+      </c>
+      <c r="H77" s="10">
+        <v>566</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="6"/>
+        <v>-1.3760854309016191E-3</v>
+      </c>
+      <c r="J77" s="15">
+        <f t="shared" si="7"/>
+        <v>-2.4827882121194356E-2</v>
+      </c>
+      <c r="K77" s="15">
+        <f t="shared" si="8"/>
+        <v>7.7307592863914421E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="B78" s="10">
+        <v>4000</v>
+      </c>
+      <c r="C78" s="10">
+        <f>SUM(D78:E78)</f>
+        <v>1998.6449864498645</v>
+      </c>
+      <c r="D78" s="10">
+        <f>$B$85/B78*($B$85/$B$86)</f>
+        <v>1388.8888888888889</v>
+      </c>
+      <c r="E78" s="10">
+        <f>$B$85/$B$87</f>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="F78" s="10">
+        <v>2046</v>
+      </c>
+      <c r="G78" s="10">
+        <v>1463</v>
+      </c>
+      <c r="H78" s="10">
+        <v>583</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="6"/>
+        <v>-2.3145167913067199E-2</v>
+      </c>
+      <c r="J78" s="15">
+        <f t="shared" si="7"/>
+        <v>-5.0656945393787511E-2</v>
+      </c>
+      <c r="K78" s="15">
+        <f t="shared" si="8"/>
+        <v>4.5893820859306267E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="B79" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C79" s="10">
+        <f>SUM(D79:E79)</f>
+        <v>1720.8672086720867</v>
+      </c>
+      <c r="D79" s="10">
+        <f>$B$85/B79*($B$85/$B$86)</f>
+        <v>1111.1111111111111</v>
+      </c>
+      <c r="E79" s="10">
+        <f>$B$85/$B$87</f>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="F79" s="10">
+        <v>1789</v>
+      </c>
+      <c r="G79" s="10">
+        <v>1194</v>
+      </c>
+      <c r="H79" s="10">
+        <v>595</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="6"/>
+        <v>-3.8084288053612858E-2</v>
+      </c>
+      <c r="J79" s="15">
+        <f t="shared" si="7"/>
+        <v>-6.9421179973943814E-2</v>
+      </c>
+      <c r="K79" s="15">
+        <f t="shared" si="8"/>
+        <v>2.4800163968026201E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="B80" s="10">
+        <v>6000</v>
+      </c>
+      <c r="C80" s="10">
+        <f>SUM(D80:E80)</f>
+        <v>1535.6820234869015</v>
+      </c>
+      <c r="D80" s="10">
+        <f>$B$85/B80*($B$85/$B$86)</f>
+        <v>925.92592592592598</v>
+      </c>
+      <c r="E80" s="10">
+        <f>$B$85/$B$87</f>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="F80" s="10">
+        <v>1645</v>
+      </c>
+      <c r="G80" s="10">
+        <v>1044</v>
+      </c>
+      <c r="H80" s="10">
+        <v>601</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="6"/>
+        <v>-6.6454696968448967E-2</v>
+      </c>
+      <c r="J80" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.11309777210160343</v>
+      </c>
+      <c r="K80" s="15">
+        <f t="shared" si="8"/>
+        <v>1.4569213911773016E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B81" s="10">
+        <v>7000</v>
+      </c>
+      <c r="C81" s="10">
+        <f>SUM(D81:E81)</f>
+        <v>1403.4068912117693</v>
+      </c>
+      <c r="D81" s="10">
+        <f>$B$85/B81*($B$85/$B$86)</f>
+        <v>793.65079365079373</v>
+      </c>
+      <c r="E81" s="10">
+        <f>$B$85/$B$87</f>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="F81" s="10">
+        <v>1556</v>
+      </c>
+      <c r="G81" s="10">
+        <v>950</v>
+      </c>
+      <c r="H81" s="10">
+        <v>606</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="6"/>
+        <v>-9.8067550635109635E-2</v>
+      </c>
+      <c r="J81" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.16457811194653293</v>
+      </c>
+      <c r="K81" s="15">
+        <f t="shared" si="8"/>
+        <v>6.1981807936890565E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="B82" s="10">
+        <v>8000</v>
+      </c>
+      <c r="C82" s="10">
+        <f>SUM(D82:E82)</f>
+        <v>1304.2005420054202</v>
+      </c>
+      <c r="D82" s="10">
+        <f>$B$85/B82*($B$85/$B$86)</f>
+        <v>694.44444444444446</v>
+      </c>
+      <c r="E82" s="10">
+        <f>$B$85/$B$87</f>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="F82" s="10">
+        <v>1551</v>
+      </c>
+      <c r="G82" s="10">
+        <v>941</v>
+      </c>
+      <c r="H82" s="10">
+        <v>610</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="6"/>
+        <v>-0.15912279690172781</v>
+      </c>
+      <c r="J82" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.26201440547880506</v>
+      </c>
+      <c r="K82" s="15">
+        <f t="shared" si="8"/>
+        <v>-3.9984006397442151E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B83" s="10">
+        <v>10000</v>
+      </c>
+      <c r="C83" s="10">
+        <f>SUM(D83:E83)</f>
+        <v>1165.311653116531</v>
+      </c>
+      <c r="D83" s="10">
+        <f>$B$85/B83*($B$85/$B$86)</f>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="E83" s="10">
+        <f>$B$85/$B$87</f>
+        <v>609.7560975609756</v>
+      </c>
+      <c r="F83" s="10">
+        <v>1331</v>
+      </c>
+      <c r="G83" s="10">
+        <v>712</v>
+      </c>
+      <c r="H83" s="10">
+        <v>619</v>
+      </c>
+      <c r="I83" s="2">
+        <f t="shared" si="6"/>
+        <v>-0.124484107350465</v>
+      </c>
+      <c r="J83" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.21972534332084892</v>
+      </c>
+      <c r="K83" s="15">
+        <f t="shared" si="8"/>
+        <v>-1.4933606525079801E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="10">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -10708,7 +12659,7 @@
         <v>103399</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G20" ca="1" si="0">OFFSET(C14,ROW()-13,0)/1000</f>
+        <f t="shared" ref="G14:G19" ca="1" si="0">OFFSET(C14,ROW()-13,0)/1000</f>
         <v>305.97800000000001</v>
       </c>
       <c r="H14">
@@ -11200,7 +13151,7 @@
   <dimension ref="A1:Q416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11595,7 +13546,7 @@
         <v>524288000</v>
       </c>
       <c r="M13">
-        <f ca="1">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="M13:M22" ca="1" si="0">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
         <v>118.60299999999999</v>
       </c>
       <c r="N13">
@@ -11623,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f ca="1">OFFSET(I17,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.51</v>
       </c>
       <c r="N14">
@@ -11657,7 +13608,7 @@
         <v>5242880</v>
       </c>
       <c r="M15">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>108.486</v>
       </c>
       <c r="N15">
@@ -11685,7 +13636,7 @@
         <v>118603</v>
       </c>
       <c r="M16">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>108.474</v>
       </c>
       <c r="N16">
@@ -11719,11 +13670,11 @@
         <v>5242880</v>
       </c>
       <c r="M17">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>108.55800000000001</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:N80" ca="1" si="0">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="N17:N80" ca="1" si="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
         <v>2.3090000000000002</v>
       </c>
     </row>
@@ -11747,11 +13698,11 @@
         <v>2489</v>
       </c>
       <c r="M18">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>108.476</v>
       </c>
       <c r="N18">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.2930000000000001</v>
       </c>
     </row>
@@ -11781,11 +13732,11 @@
         <v>5242880</v>
       </c>
       <c r="M19">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>108.47799999999999</v>
       </c>
       <c r="N19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.2869999999999999</v>
       </c>
     </row>
@@ -11809,11 +13760,11 @@
         <v>111510</v>
       </c>
       <c r="M20">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>108.45399999999999</v>
       </c>
       <c r="N20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.2909999999999999</v>
       </c>
     </row>
@@ -11843,11 +13794,11 @@
         <v>5242880</v>
       </c>
       <c r="M21">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>108.42</v>
       </c>
       <c r="N21">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.2879999999999998</v>
       </c>
     </row>
@@ -11871,11 +13822,11 @@
         <v>2295</v>
       </c>
       <c r="M22">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>108.45099999999999</v>
       </c>
       <c r="N22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.448</v>
       </c>
     </row>
@@ -11905,11 +13856,11 @@
         <v>5242880</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M86" ca="1" si="1">OFFSET(I26,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="M23:M86" ca="1" si="2">OFFSET(I26,(ROW()-13)*3,0)/1000</f>
         <v>108.476</v>
       </c>
       <c r="N23">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.407</v>
       </c>
     </row>
@@ -11933,11 +13884,11 @@
         <v>108486</v>
       </c>
       <c r="M24">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.44199999999999</v>
+      </c>
+      <c r="N24">
         <f t="shared" ca="1" si="1"/>
-        <v>108.44199999999999</v>
-      </c>
-      <c r="N24">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4079999999999999</v>
       </c>
     </row>
@@ -11967,11 +13918,11 @@
         <v>5242880</v>
       </c>
       <c r="M25">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.482</v>
+      </c>
+      <c r="N25">
         <f t="shared" ca="1" si="1"/>
-        <v>108.482</v>
-      </c>
-      <c r="N25">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4390000000000001</v>
       </c>
     </row>
@@ -11995,11 +13946,11 @@
         <v>2357</v>
       </c>
       <c r="M26">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.498</v>
+      </c>
+      <c r="N26">
         <f t="shared" ca="1" si="1"/>
-        <v>108.498</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="0"/>
         <v>2.427</v>
       </c>
     </row>
@@ -12029,11 +13980,11 @@
         <v>5242880</v>
       </c>
       <c r="M27">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.437</v>
+      </c>
+      <c r="N27">
         <f t="shared" ca="1" si="1"/>
-        <v>108.437</v>
-      </c>
-      <c r="N27">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4169999999999998</v>
       </c>
     </row>
@@ -12057,11 +14008,11 @@
         <v>108474</v>
       </c>
       <c r="M28">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.578</v>
+      </c>
+      <c r="N28">
         <f t="shared" ca="1" si="1"/>
-        <v>108.578</v>
-      </c>
-      <c r="N28">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4079999999999999</v>
       </c>
     </row>
@@ -12091,11 +14042,11 @@
         <v>5242880</v>
       </c>
       <c r="M29">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.462</v>
+      </c>
+      <c r="N29">
         <f t="shared" ca="1" si="1"/>
-        <v>108.462</v>
-      </c>
-      <c r="N29">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4510000000000001</v>
       </c>
     </row>
@@ -12119,11 +14070,11 @@
         <v>2337</v>
       </c>
       <c r="M30">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.56699999999999</v>
+      </c>
+      <c r="N30">
         <f t="shared" ca="1" si="1"/>
-        <v>108.56699999999999</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4289999999999998</v>
       </c>
     </row>
@@ -12153,11 +14104,11 @@
         <v>5242880</v>
       </c>
       <c r="M31">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.48099999999999</v>
+      </c>
+      <c r="N31">
         <f t="shared" ca="1" si="1"/>
-        <v>108.48099999999999</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4409999999999998</v>
       </c>
     </row>
@@ -12181,11 +14132,11 @@
         <v>108558</v>
       </c>
       <c r="M32">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.462</v>
+      </c>
+      <c r="N32">
         <f t="shared" ca="1" si="1"/>
-        <v>108.462</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="0"/>
         <v>2.41</v>
       </c>
     </row>
@@ -12215,11 +14166,11 @@
         <v>5242880</v>
       </c>
       <c r="M33">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.498</v>
+      </c>
+      <c r="N33">
         <f t="shared" ca="1" si="1"/>
-        <v>108.498</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4159999999999999</v>
       </c>
     </row>
@@ -12243,11 +14194,11 @@
         <v>2309</v>
       </c>
       <c r="M34">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.458</v>
+      </c>
+      <c r="N34">
         <f t="shared" ca="1" si="1"/>
-        <v>108.458</v>
-      </c>
-      <c r="N34">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4420000000000002</v>
       </c>
     </row>
@@ -12277,11 +14228,11 @@
         <v>5242880</v>
       </c>
       <c r="M35">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.476</v>
+      </c>
+      <c r="N35">
         <f t="shared" ca="1" si="1"/>
-        <v>108.476</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ca="1" si="0"/>
         <v>2.415</v>
       </c>
     </row>
@@ -12305,11 +14256,11 @@
         <v>108476</v>
       </c>
       <c r="M36">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.524</v>
+      </c>
+      <c r="N36">
         <f t="shared" ca="1" si="1"/>
-        <v>108.524</v>
-      </c>
-      <c r="N36">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4249999999999998</v>
       </c>
     </row>
@@ -12339,11 +14290,11 @@
         <v>5242880</v>
       </c>
       <c r="M37">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.482</v>
+      </c>
+      <c r="N37">
         <f t="shared" ca="1" si="1"/>
-        <v>108.482</v>
-      </c>
-      <c r="N37">
-        <f t="shared" ca="1" si="0"/>
         <v>2.415</v>
       </c>
     </row>
@@ -12367,11 +14318,11 @@
         <v>2293</v>
       </c>
       <c r="M38">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.6</v>
+      </c>
+      <c r="N38">
         <f t="shared" ca="1" si="1"/>
-        <v>108.6</v>
-      </c>
-      <c r="N38">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4</v>
       </c>
     </row>
@@ -12401,11 +14352,11 @@
         <v>5242880</v>
       </c>
       <c r="M39">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.526</v>
+      </c>
+      <c r="N39">
         <f t="shared" ca="1" si="1"/>
-        <v>108.526</v>
-      </c>
-      <c r="N39">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4039999999999999</v>
       </c>
     </row>
@@ -12429,11 +14380,11 @@
         <v>108478</v>
       </c>
       <c r="M40">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.622</v>
+      </c>
+      <c r="N40">
         <f t="shared" ca="1" si="1"/>
-        <v>108.622</v>
-      </c>
-      <c r="N40">
-        <f t="shared" ca="1" si="0"/>
         <v>2.3370000000000002</v>
       </c>
     </row>
@@ -12463,11 +14414,11 @@
         <v>5242880</v>
       </c>
       <c r="M41">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.542</v>
+      </c>
+      <c r="N41">
         <f t="shared" ca="1" si="1"/>
-        <v>108.542</v>
-      </c>
-      <c r="N41">
-        <f t="shared" ca="1" si="0"/>
         <v>2.3879999999999999</v>
       </c>
     </row>
@@ -12491,11 +14442,11 @@
         <v>2287</v>
       </c>
       <c r="M42">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.47499999999999</v>
+      </c>
+      <c r="N42">
         <f t="shared" ca="1" si="1"/>
-        <v>108.47499999999999</v>
-      </c>
-      <c r="N42">
-        <f t="shared" ca="1" si="0"/>
         <v>2.452</v>
       </c>
     </row>
@@ -12525,11 +14476,11 @@
         <v>5242880</v>
       </c>
       <c r="M43">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.372</v>
+      </c>
+      <c r="N43">
         <f t="shared" ca="1" si="1"/>
-        <v>108.372</v>
-      </c>
-      <c r="N43">
-        <f t="shared" ca="1" si="0"/>
         <v>2.41</v>
       </c>
     </row>
@@ -12553,11 +14504,11 @@
         <v>108454</v>
       </c>
       <c r="M44">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.42100000000001</v>
+      </c>
+      <c r="N44">
         <f t="shared" ca="1" si="1"/>
-        <v>108.42100000000001</v>
-      </c>
-      <c r="N44">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4260000000000002</v>
       </c>
     </row>
@@ -12587,11 +14538,11 @@
         <v>5242880</v>
       </c>
       <c r="M45">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.46299999999999</v>
+      </c>
+      <c r="N45">
         <f t="shared" ca="1" si="1"/>
-        <v>108.46299999999999</v>
-      </c>
-      <c r="N45">
-        <f t="shared" ca="1" si="0"/>
         <v>2.41</v>
       </c>
     </row>
@@ -12615,11 +14566,11 @@
         <v>2291</v>
       </c>
       <c r="M46">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.47</v>
+      </c>
+      <c r="N46">
         <f t="shared" ca="1" si="1"/>
-        <v>108.47</v>
-      </c>
-      <c r="N46">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4180000000000001</v>
       </c>
     </row>
@@ -12649,11 +14600,11 @@
         <v>5242880</v>
       </c>
       <c r="M47">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.42100000000001</v>
+      </c>
+      <c r="N47">
         <f t="shared" ca="1" si="1"/>
-        <v>108.42100000000001</v>
-      </c>
-      <c r="N47">
-        <f t="shared" ca="1" si="0"/>
         <v>2.41</v>
       </c>
     </row>
@@ -12677,11 +14628,11 @@
         <v>108420</v>
       </c>
       <c r="M48">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.486</v>
+      </c>
+      <c r="N48">
         <f t="shared" ca="1" si="1"/>
-        <v>108.486</v>
-      </c>
-      <c r="N48">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4329999999999998</v>
       </c>
     </row>
@@ -12711,11 +14662,11 @@
         <v>5242880</v>
       </c>
       <c r="M49">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.447</v>
+      </c>
+      <c r="N49">
         <f t="shared" ca="1" si="1"/>
-        <v>108.447</v>
-      </c>
-      <c r="N49">
-        <f t="shared" ca="1" si="0"/>
         <v>2.3919999999999999</v>
       </c>
     </row>
@@ -12739,11 +14690,11 @@
         <v>2288</v>
       </c>
       <c r="M50">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.471</v>
+      </c>
+      <c r="N50">
         <f t="shared" ca="1" si="1"/>
-        <v>108.471</v>
-      </c>
-      <c r="N50">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4340000000000002</v>
       </c>
     </row>
@@ -12773,11 +14724,11 @@
         <v>5242880</v>
       </c>
       <c r="M51">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.46899999999999</v>
+      </c>
+      <c r="N51">
         <f t="shared" ca="1" si="1"/>
-        <v>108.46899999999999</v>
-      </c>
-      <c r="N51">
-        <f t="shared" ca="1" si="0"/>
         <v>2.41</v>
       </c>
     </row>
@@ -12801,11 +14752,11 @@
         <v>108451</v>
       </c>
       <c r="M52">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.383</v>
+      </c>
+      <c r="N52">
         <f t="shared" ca="1" si="1"/>
-        <v>108.383</v>
-      </c>
-      <c r="N52">
-        <f t="shared" ca="1" si="0"/>
         <v>2.42</v>
       </c>
     </row>
@@ -12835,11 +14786,11 @@
         <v>5242880</v>
       </c>
       <c r="M53">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.413</v>
+      </c>
+      <c r="N53">
         <f t="shared" ca="1" si="1"/>
-        <v>108.413</v>
-      </c>
-      <c r="N53">
-        <f t="shared" ca="1" si="0"/>
         <v>2.403</v>
       </c>
     </row>
@@ -12863,11 +14814,11 @@
         <v>2448</v>
       </c>
       <c r="M54">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.447</v>
+      </c>
+      <c r="N54">
         <f t="shared" ca="1" si="1"/>
-        <v>108.447</v>
-      </c>
-      <c r="N54">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4009999999999998</v>
       </c>
     </row>
@@ -12897,11 +14848,11 @@
         <v>5242880</v>
       </c>
       <c r="M55">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.48699999999999</v>
+      </c>
+      <c r="N55">
         <f t="shared" ca="1" si="1"/>
-        <v>108.48699999999999</v>
-      </c>
-      <c r="N55">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4180000000000001</v>
       </c>
     </row>
@@ -12925,11 +14876,11 @@
         <v>108476</v>
       </c>
       <c r="M56">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.533</v>
+      </c>
+      <c r="N56">
         <f t="shared" ca="1" si="1"/>
-        <v>108.533</v>
-      </c>
-      <c r="N56">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4350000000000001</v>
       </c>
     </row>
@@ -12959,11 +14910,11 @@
         <v>5242880</v>
       </c>
       <c r="M57">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.41500000000001</v>
+      </c>
+      <c r="N57">
         <f t="shared" ca="1" si="1"/>
-        <v>108.41500000000001</v>
-      </c>
-      <c r="N57">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4039999999999999</v>
       </c>
     </row>
@@ -12987,11 +14938,11 @@
         <v>2407</v>
       </c>
       <c r="M58">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.53100000000001</v>
+      </c>
+      <c r="N58">
         <f t="shared" ca="1" si="1"/>
-        <v>108.53100000000001</v>
-      </c>
-      <c r="N58">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -13021,11 +14972,11 @@
         <v>5242880</v>
       </c>
       <c r="M59">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.468</v>
+      </c>
+      <c r="N59">
         <f t="shared" ca="1" si="1"/>
-        <v>108.468</v>
-      </c>
-      <c r="N59">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4180000000000001</v>
       </c>
     </row>
@@ -13049,11 +15000,11 @@
         <v>108442</v>
       </c>
       <c r="M60">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.471</v>
+      </c>
+      <c r="N60">
         <f t="shared" ca="1" si="1"/>
-        <v>108.471</v>
-      </c>
-      <c r="N60">
-        <f t="shared" ca="1" si="0"/>
         <v>2.41</v>
       </c>
     </row>
@@ -13083,11 +15034,11 @@
         <v>5242880</v>
       </c>
       <c r="M61">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.52200000000001</v>
+      </c>
+      <c r="N61">
         <f t="shared" ca="1" si="1"/>
-        <v>108.52200000000001</v>
-      </c>
-      <c r="N61">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4550000000000001</v>
       </c>
     </row>
@@ -13111,11 +15062,11 @@
         <v>2408</v>
       </c>
       <c r="M62">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.60299999999999</v>
+      </c>
+      <c r="N62">
         <f t="shared" ca="1" si="1"/>
-        <v>108.60299999999999</v>
-      </c>
-      <c r="N62">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4260000000000002</v>
       </c>
     </row>
@@ -13145,11 +15096,11 @@
         <v>5242880</v>
       </c>
       <c r="M63">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.432</v>
+      </c>
+      <c r="N63">
         <f t="shared" ca="1" si="1"/>
-        <v>108.432</v>
-      </c>
-      <c r="N63">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4249999999999998</v>
       </c>
     </row>
@@ -13173,11 +15124,11 @@
         <v>108482</v>
       </c>
       <c r="M64">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.479</v>
+      </c>
+      <c r="N64">
         <f t="shared" ca="1" si="1"/>
-        <v>108.479</v>
-      </c>
-      <c r="N64">
-        <f t="shared" ca="1" si="0"/>
         <v>2.415</v>
       </c>
     </row>
@@ -13207,11 +15158,11 @@
         <v>5242880</v>
       </c>
       <c r="M65">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.43899999999999</v>
+      </c>
+      <c r="N65">
         <f t="shared" ca="1" si="1"/>
-        <v>108.43899999999999</v>
-      </c>
-      <c r="N65">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4020000000000001</v>
       </c>
     </row>
@@ -13235,11 +15186,11 @@
         <v>2439</v>
       </c>
       <c r="M66">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.52500000000001</v>
+      </c>
+      <c r="N66">
         <f t="shared" ca="1" si="1"/>
-        <v>108.52500000000001</v>
-      </c>
-      <c r="N66">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4279999999999999</v>
       </c>
     </row>
@@ -13269,11 +15220,11 @@
         <v>5242880</v>
       </c>
       <c r="M67">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.462</v>
+      </c>
+      <c r="N67">
         <f t="shared" ca="1" si="1"/>
-        <v>108.462</v>
-      </c>
-      <c r="N67">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4260000000000002</v>
       </c>
     </row>
@@ -13297,11 +15248,11 @@
         <v>108498</v>
       </c>
       <c r="M68">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.486</v>
+      </c>
+      <c r="N68">
         <f t="shared" ca="1" si="1"/>
-        <v>108.486</v>
-      </c>
-      <c r="N68">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4529999999999998</v>
       </c>
     </row>
@@ -13331,11 +15282,11 @@
         <v>5242880</v>
       </c>
       <c r="M69">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.473</v>
+      </c>
+      <c r="N69">
         <f t="shared" ca="1" si="1"/>
-        <v>108.473</v>
-      </c>
-      <c r="N69">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4239999999999999</v>
       </c>
     </row>
@@ -13359,11 +15310,11 @@
         <v>2427</v>
       </c>
       <c r="M70">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.44799999999999</v>
+      </c>
+      <c r="N70">
         <f t="shared" ca="1" si="1"/>
-        <v>108.44799999999999</v>
-      </c>
-      <c r="N70">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4209999999999998</v>
       </c>
     </row>
@@ -13393,11 +15344,11 @@
         <v>5242880</v>
       </c>
       <c r="M71">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.491</v>
+      </c>
+      <c r="N71">
         <f t="shared" ca="1" si="1"/>
-        <v>108.491</v>
-      </c>
-      <c r="N71">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4129999999999998</v>
       </c>
     </row>
@@ -13421,11 +15372,11 @@
         <v>108437</v>
       </c>
       <c r="M72">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.492</v>
+      </c>
+      <c r="N72">
         <f t="shared" ca="1" si="1"/>
-        <v>108.492</v>
-      </c>
-      <c r="N72">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4180000000000001</v>
       </c>
     </row>
@@ -13455,11 +15406,11 @@
         <v>5242880</v>
       </c>
       <c r="M73">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.468</v>
+      </c>
+      <c r="N73">
         <f t="shared" ca="1" si="1"/>
-        <v>108.468</v>
-      </c>
-      <c r="N73">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4</v>
       </c>
     </row>
@@ -13483,11 +15434,11 @@
         <v>2417</v>
       </c>
       <c r="M74">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.55</v>
+      </c>
+      <c r="N74">
         <f t="shared" ca="1" si="1"/>
-        <v>108.55</v>
-      </c>
-      <c r="N74">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4129999999999998</v>
       </c>
     </row>
@@ -13517,11 +15468,11 @@
         <v>5242880</v>
       </c>
       <c r="M75">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.511</v>
+      </c>
+      <c r="N75">
         <f t="shared" ca="1" si="1"/>
-        <v>108.511</v>
-      </c>
-      <c r="N75">
-        <f t="shared" ca="1" si="0"/>
         <v>2.407</v>
       </c>
     </row>
@@ -13545,11 +15496,11 @@
         <v>108578</v>
       </c>
       <c r="M76">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.512</v>
+      </c>
+      <c r="N76">
         <f t="shared" ca="1" si="1"/>
-        <v>108.512</v>
-      </c>
-      <c r="N76">
-        <f t="shared" ca="1" si="0"/>
         <v>2.427</v>
       </c>
     </row>
@@ -13579,11 +15530,11 @@
         <v>5242880</v>
       </c>
       <c r="M77">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.441</v>
+      </c>
+      <c r="N77">
         <f t="shared" ca="1" si="1"/>
-        <v>108.441</v>
-      </c>
-      <c r="N77">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -13607,11 +15558,11 @@
         <v>2408</v>
       </c>
       <c r="M78">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.408</v>
+      </c>
+      <c r="N78">
         <f t="shared" ca="1" si="1"/>
-        <v>108.408</v>
-      </c>
-      <c r="N78">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4129999999999998</v>
       </c>
     </row>
@@ -13641,11 +15592,11 @@
         <v>5242880</v>
       </c>
       <c r="M79">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.554</v>
+      </c>
+      <c r="N79">
         <f t="shared" ca="1" si="1"/>
-        <v>108.554</v>
-      </c>
-      <c r="N79">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4169999999999998</v>
       </c>
     </row>
@@ -13669,11 +15620,11 @@
         <v>108462</v>
       </c>
       <c r="M80">
+        <f t="shared" ca="1" si="2"/>
+        <v>108.497</v>
+      </c>
+      <c r="N80">
         <f t="shared" ca="1" si="1"/>
-        <v>108.497</v>
-      </c>
-      <c r="N80">
-        <f t="shared" ca="1" si="0"/>
         <v>2.4180000000000001</v>
       </c>
     </row>
@@ -13703,11 +15654,11 @@
         <v>5242880</v>
       </c>
       <c r="M81">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>108.47799999999999</v>
       </c>
       <c r="N81">
-        <f t="shared" ref="N81:N113" ca="1" si="2">OFFSET(I86,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="N81:N112" ca="1" si="3">OFFSET(I86,(ROW()-13)*3,0)/1000</f>
         <v>2.4319999999999999</v>
       </c>
     </row>
@@ -13731,11 +15682,11 @@
         <v>2451</v>
       </c>
       <c r="M82">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>108.494</v>
       </c>
       <c r="N82">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2930000000000001</v>
       </c>
     </row>
@@ -13765,11 +15716,11 @@
         <v>5242880</v>
       </c>
       <c r="M83">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>108.404</v>
       </c>
       <c r="N83">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.29</v>
       </c>
     </row>
@@ -13793,11 +15744,11 @@
         <v>108567</v>
       </c>
       <c r="M84">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>108.53100000000001</v>
       </c>
       <c r="N84">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2919999999999998</v>
       </c>
     </row>
@@ -13827,11 +15778,11 @@
         <v>5242880</v>
       </c>
       <c r="M85">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>108.44199999999999</v>
       </c>
       <c r="N85">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2890000000000001</v>
       </c>
     </row>
@@ -13855,11 +15806,11 @@
         <v>2429</v>
       </c>
       <c r="M86">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>108.48699999999999</v>
       </c>
       <c r="N86">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4119999999999999</v>
       </c>
     </row>
@@ -13889,11 +15840,11 @@
         <v>5242880</v>
       </c>
       <c r="M87">
-        <f t="shared" ref="M87:M139" ca="1" si="3">OFFSET(I90,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="M87:M112" ca="1" si="4">OFFSET(I90,(ROW()-13)*3,0)/1000</f>
         <v>108.45</v>
       </c>
       <c r="N87">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4239999999999999</v>
       </c>
     </row>
@@ -13917,11 +15868,11 @@
         <v>108481</v>
       </c>
       <c r="M88">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.491</v>
+      </c>
+      <c r="N88">
         <f t="shared" ca="1" si="3"/>
-        <v>108.491</v>
-      </c>
-      <c r="N88">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4140000000000001</v>
       </c>
     </row>
@@ -13951,11 +15902,11 @@
         <v>5242880</v>
       </c>
       <c r="M89">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.533</v>
+      </c>
+      <c r="N89">
         <f t="shared" ca="1" si="3"/>
-        <v>108.533</v>
-      </c>
-      <c r="N89">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4580000000000002</v>
       </c>
     </row>
@@ -13979,11 +15930,11 @@
         <v>2441</v>
       </c>
       <c r="M90">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.471</v>
+      </c>
+      <c r="N90">
         <f t="shared" ca="1" si="3"/>
-        <v>108.471</v>
-      </c>
-      <c r="N90">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4169999999999998</v>
       </c>
     </row>
@@ -14013,11 +15964,11 @@
         <v>5242880</v>
       </c>
       <c r="M91">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.51</v>
+      </c>
+      <c r="N91">
         <f t="shared" ca="1" si="3"/>
-        <v>108.51</v>
-      </c>
-      <c r="N91">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4089999999999998</v>
       </c>
     </row>
@@ -14041,11 +15992,11 @@
         <v>108462</v>
       </c>
       <c r="M92">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.51600000000001</v>
+      </c>
+      <c r="N92">
         <f t="shared" ca="1" si="3"/>
-        <v>108.51600000000001</v>
-      </c>
-      <c r="N92">
-        <f t="shared" ca="1" si="2"/>
         <v>2.419</v>
       </c>
     </row>
@@ -14075,11 +16026,11 @@
         <v>5242880</v>
       </c>
       <c r="M93">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.55200000000001</v>
+      </c>
+      <c r="N93">
         <f t="shared" ca="1" si="3"/>
-        <v>108.55200000000001</v>
-      </c>
-      <c r="N93">
-        <f t="shared" ca="1" si="2"/>
         <v>2.419</v>
       </c>
     </row>
@@ -14103,11 +16054,11 @@
         <v>2410</v>
       </c>
       <c r="M94">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.405</v>
+      </c>
+      <c r="N94">
         <f t="shared" ca="1" si="3"/>
-        <v>108.405</v>
-      </c>
-      <c r="N94">
-        <f t="shared" ca="1" si="2"/>
         <v>2.42</v>
       </c>
     </row>
@@ -14137,11 +16088,11 @@
         <v>5242880</v>
       </c>
       <c r="M95">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.497</v>
+      </c>
+      <c r="N95">
         <f t="shared" ca="1" si="3"/>
-        <v>108.497</v>
-      </c>
-      <c r="N95">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4390000000000001</v>
       </c>
     </row>
@@ -14165,11 +16116,11 @@
         <v>108498</v>
       </c>
       <c r="M96">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.476</v>
+      </c>
+      <c r="N96">
         <f t="shared" ca="1" si="3"/>
-        <v>108.476</v>
-      </c>
-      <c r="N96">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4180000000000001</v>
       </c>
     </row>
@@ -14199,11 +16150,11 @@
         <v>5242880</v>
       </c>
       <c r="M97">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.46599999999999</v>
+      </c>
+      <c r="N97">
         <f t="shared" ca="1" si="3"/>
-        <v>108.46599999999999</v>
-      </c>
-      <c r="N97">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4049999999999998</v>
       </c>
     </row>
@@ -14227,11 +16178,11 @@
         <v>2416</v>
       </c>
       <c r="M98">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.479</v>
+      </c>
+      <c r="N98">
         <f t="shared" ca="1" si="3"/>
-        <v>108.479</v>
-      </c>
-      <c r="N98">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4260000000000002</v>
       </c>
     </row>
@@ -14261,11 +16212,11 @@
         <v>5242880</v>
       </c>
       <c r="M99">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.46</v>
+      </c>
+      <c r="N99">
         <f t="shared" ca="1" si="3"/>
-        <v>108.46</v>
-      </c>
-      <c r="N99">
-        <f t="shared" ca="1" si="2"/>
         <v>2.411</v>
       </c>
     </row>
@@ -14289,11 +16240,11 @@
         <v>108458</v>
       </c>
       <c r="M100">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.511</v>
+      </c>
+      <c r="N100">
         <f t="shared" ca="1" si="3"/>
-        <v>108.511</v>
-      </c>
-      <c r="N100">
-        <f t="shared" ca="1" si="2"/>
         <v>2.383</v>
       </c>
     </row>
@@ -14323,11 +16274,11 @@
         <v>5242880</v>
       </c>
       <c r="M101">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.41</v>
+      </c>
+      <c r="N101">
         <f t="shared" ca="1" si="3"/>
-        <v>108.41</v>
-      </c>
-      <c r="N101">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4249999999999998</v>
       </c>
     </row>
@@ -14351,11 +16302,11 @@
         <v>2442</v>
       </c>
       <c r="M102">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.553</v>
+      </c>
+      <c r="N102">
         <f t="shared" ca="1" si="3"/>
-        <v>108.553</v>
-      </c>
-      <c r="N102">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4089999999999998</v>
       </c>
     </row>
@@ -14385,11 +16336,11 @@
         <v>5242880</v>
       </c>
       <c r="M103">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.51</v>
+      </c>
+      <c r="N103">
         <f t="shared" ca="1" si="3"/>
-        <v>108.51</v>
-      </c>
-      <c r="N103">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4180000000000001</v>
       </c>
     </row>
@@ -14413,11 +16364,11 @@
         <v>108476</v>
       </c>
       <c r="M104">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.48099999999999</v>
+      </c>
+      <c r="N104">
         <f t="shared" ca="1" si="3"/>
-        <v>108.48099999999999</v>
-      </c>
-      <c r="N104">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4129999999999998</v>
       </c>
     </row>
@@ -14447,11 +16398,11 @@
         <v>5242880</v>
       </c>
       <c r="M105">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.452</v>
+      </c>
+      <c r="N105">
         <f t="shared" ca="1" si="3"/>
-        <v>108.452</v>
-      </c>
-      <c r="N105">
-        <f t="shared" ca="1" si="2"/>
         <v>2.411</v>
       </c>
     </row>
@@ -14475,11 +16426,11 @@
         <v>2415</v>
       </c>
       <c r="M106">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.485</v>
+      </c>
+      <c r="N106">
         <f t="shared" ca="1" si="3"/>
-        <v>108.485</v>
-      </c>
-      <c r="N106">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4329999999999998</v>
       </c>
     </row>
@@ -14509,11 +16460,11 @@
         <v>5242880</v>
       </c>
       <c r="M107">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.517</v>
+      </c>
+      <c r="N107">
         <f t="shared" ca="1" si="3"/>
-        <v>108.517</v>
-      </c>
-      <c r="N107">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4119999999999999</v>
       </c>
     </row>
@@ -14537,11 +16488,11 @@
         <v>108524</v>
       </c>
       <c r="M108">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.486</v>
+      </c>
+      <c r="N108">
         <f t="shared" ca="1" si="3"/>
-        <v>108.486</v>
-      </c>
-      <c r="N108">
-        <f t="shared" ca="1" si="2"/>
         <v>2.3919999999999999</v>
       </c>
     </row>
@@ -14571,11 +16522,11 @@
         <v>5242880</v>
       </c>
       <c r="M109">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.511</v>
+      </c>
+      <c r="N109">
         <f t="shared" ca="1" si="3"/>
-        <v>108.511</v>
-      </c>
-      <c r="N109">
-        <f t="shared" ca="1" si="2"/>
         <v>2.399</v>
       </c>
     </row>
@@ -14599,11 +16550,11 @@
         <v>2425</v>
       </c>
       <c r="M110">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.435</v>
+      </c>
+      <c r="N110">
         <f t="shared" ca="1" si="3"/>
-        <v>108.435</v>
-      </c>
-      <c r="N110">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4140000000000001</v>
       </c>
     </row>
@@ -14633,11 +16584,11 @@
         <v>5242880</v>
       </c>
       <c r="M111">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.506</v>
+      </c>
+      <c r="N111">
         <f t="shared" ca="1" si="3"/>
-        <v>108.506</v>
-      </c>
-      <c r="N111">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4039999999999999</v>
       </c>
     </row>
@@ -14661,11 +16612,11 @@
         <v>108482</v>
       </c>
       <c r="M112">
+        <f t="shared" ca="1" si="4"/>
+        <v>108.443</v>
+      </c>
+      <c r="N112">
         <f t="shared" ca="1" si="3"/>
-        <v>108.443</v>
-      </c>
-      <c r="N112">
-        <f t="shared" ca="1" si="2"/>
         <v>2.4260000000000002</v>
       </c>
     </row>
@@ -27148,11 +29099,11 @@
         <v>524288000</v>
       </c>
       <c r="M13">
-        <f ca="1">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="M13:M37" ca="1" si="0">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
         <v>120.69499999999999</v>
       </c>
       <c r="N13">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="N13:N37" ca="1" si="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
         <v>22.186</v>
       </c>
     </row>
@@ -27176,11 +29127,11 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f ca="1">OFFSET(I17,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.17400000000001</v>
       </c>
       <c r="N14">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.399000000000001</v>
       </c>
     </row>
@@ -27210,11 +29161,11 @@
         <v>20971520</v>
       </c>
       <c r="M15">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.622</v>
       </c>
       <c r="N15">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.5</v>
       </c>
     </row>
@@ -27238,11 +29189,11 @@
         <v>120695</v>
       </c>
       <c r="M16">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.51600000000001</v>
       </c>
       <c r="N16">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.504000000000001</v>
       </c>
     </row>
@@ -27272,11 +29223,11 @@
         <v>20971520</v>
       </c>
       <c r="M17">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.577</v>
       </c>
       <c r="N17">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.457999999999998</v>
       </c>
     </row>
@@ -27300,11 +29251,11 @@
         <v>22186</v>
       </c>
       <c r="M18">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.554</v>
       </c>
       <c r="N18">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.5</v>
       </c>
     </row>
@@ -27334,11 +29285,11 @@
         <v>20971520</v>
       </c>
       <c r="M19">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.521</v>
       </c>
       <c r="N19">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.431999999999999</v>
       </c>
     </row>
@@ -27362,11 +29313,11 @@
         <v>110174</v>
       </c>
       <c r="M20">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.512</v>
       </c>
       <c r="N20">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.323</v>
       </c>
     </row>
@@ -27396,11 +29347,11 @@
         <v>20971520</v>
       </c>
       <c r="M21">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.873</v>
       </c>
       <c r="N21">
-        <f ca="1">OFFSET(I26,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.468</v>
       </c>
     </row>
@@ -27424,11 +29375,11 @@
         <v>21399</v>
       </c>
       <c r="M22">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.568</v>
       </c>
       <c r="N22">
-        <f ca="1">OFFSET(I27,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.408999999999999</v>
       </c>
     </row>
@@ -27458,11 +29409,11 @@
         <v>20971520</v>
       </c>
       <c r="M23">
-        <f ca="1">OFFSET(I26,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.542</v>
       </c>
       <c r="N23">
-        <f ca="1">OFFSET(I28,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.343</v>
       </c>
     </row>
@@ -27486,11 +29437,11 @@
         <v>109622</v>
       </c>
       <c r="M24">
-        <f ca="1">OFFSET(I27,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.53400000000001</v>
       </c>
       <c r="N24">
-        <f ca="1">OFFSET(I29,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.347999999999999</v>
       </c>
     </row>
@@ -27520,11 +29471,11 @@
         <v>20971520</v>
       </c>
       <c r="M25">
-        <f ca="1">OFFSET(I28,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.505</v>
       </c>
       <c r="N25">
-        <f ca="1">OFFSET(I30,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.326000000000001</v>
       </c>
     </row>
@@ -27548,11 +29499,11 @@
         <v>21500</v>
       </c>
       <c r="M26">
-        <f ca="1">OFFSET(I29,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.51900000000001</v>
       </c>
       <c r="N26">
-        <f ca="1">OFFSET(I31,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.382999999999999</v>
       </c>
     </row>
@@ -27582,11 +29533,11 @@
         <v>20971520</v>
       </c>
       <c r="M27">
-        <f ca="1">OFFSET(I30,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.443</v>
       </c>
       <c r="N27">
-        <f ca="1">OFFSET(I32,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.373000000000001</v>
       </c>
     </row>
@@ -27610,11 +29561,11 @@
         <v>109516</v>
       </c>
       <c r="M28">
-        <f ca="1">OFFSET(I31,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.46299999999999</v>
       </c>
       <c r="N28">
-        <f ca="1">OFFSET(I33,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.414000000000001</v>
       </c>
     </row>
@@ -27644,11 +29595,11 @@
         <v>20971520</v>
       </c>
       <c r="M29">
-        <f ca="1">OFFSET(I32,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.51900000000001</v>
       </c>
       <c r="N29">
-        <f ca="1">OFFSET(I34,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.395</v>
       </c>
     </row>
@@ -27672,11 +29623,11 @@
         <v>21504</v>
       </c>
       <c r="M30">
-        <f ca="1">OFFSET(I33,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.45099999999999</v>
       </c>
       <c r="N30">
-        <f ca="1">OFFSET(I35,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.431999999999999</v>
       </c>
     </row>
@@ -27706,11 +29657,11 @@
         <v>20971520</v>
       </c>
       <c r="M31">
-        <f ca="1">OFFSET(I34,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.477</v>
       </c>
       <c r="N31">
-        <f ca="1">OFFSET(I36,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.257999999999999</v>
       </c>
     </row>
@@ -27734,11 +29685,11 @@
         <v>109577</v>
       </c>
       <c r="M32">
-        <f ca="1">OFFSET(I35,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.42100000000001</v>
       </c>
       <c r="N32">
-        <f ca="1">OFFSET(I37,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.335999999999999</v>
       </c>
     </row>
@@ -27768,11 +29719,11 @@
         <v>20971520</v>
       </c>
       <c r="M33">
-        <f ca="1">OFFSET(I36,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.486</v>
       </c>
       <c r="N33">
-        <f ca="1">OFFSET(I38,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.420999999999999</v>
       </c>
     </row>
@@ -27796,11 +29747,11 @@
         <v>21458</v>
       </c>
       <c r="M34">
-        <f ca="1">OFFSET(I37,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.462</v>
       </c>
       <c r="N34">
-        <f ca="1">OFFSET(I39,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.369</v>
       </c>
     </row>
@@ -27830,11 +29781,11 @@
         <v>20971520</v>
       </c>
       <c r="M35">
-        <f ca="1">OFFSET(I38,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.432</v>
       </c>
       <c r="N35">
-        <f ca="1">OFFSET(I40,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.334</v>
       </c>
     </row>
@@ -27858,11 +29809,11 @@
         <v>109554</v>
       </c>
       <c r="M36">
-        <f ca="1">OFFSET(I39,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.496</v>
       </c>
       <c r="N36">
-        <f ca="1">OFFSET(I41,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.393999999999998</v>
       </c>
     </row>
@@ -27892,11 +29843,11 @@
         <v>20971520</v>
       </c>
       <c r="M37">
-        <f ca="1">OFFSET(I40,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>109.248</v>
       </c>
       <c r="N37">
-        <f ca="1">OFFSET(I42,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.417000000000002</v>
       </c>
     </row>
@@ -30124,11 +32075,11 @@
         <v>524288000</v>
       </c>
       <c r="M13">
-        <f ca="1">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="M13:M29" ca="1" si="0">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
         <v>121.17400000000001</v>
       </c>
       <c r="N13">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="N13:N29" ca="1" si="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
         <v>35.14</v>
       </c>
     </row>
@@ -30152,11 +32103,11 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f ca="1">OFFSET(I17,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>112.639</v>
       </c>
       <c r="N14">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.970999999999997</v>
       </c>
     </row>
@@ -30186,11 +32137,11 @@
         <v>31457280</v>
       </c>
       <c r="M15">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>113.233</v>
       </c>
       <c r="N15">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.999000000000002</v>
       </c>
     </row>
@@ -30214,11 +32165,11 @@
         <v>121174</v>
       </c>
       <c r="M16">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>112.619</v>
       </c>
       <c r="N16">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.942</v>
       </c>
     </row>
@@ -30248,11 +32199,11 @@
         <v>31457280</v>
       </c>
       <c r="M17">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.914</v>
       </c>
       <c r="N17">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.936999999999998</v>
       </c>
     </row>
@@ -30276,11 +32227,11 @@
         <v>35140</v>
       </c>
       <c r="M18">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.70699999999999</v>
       </c>
       <c r="N18">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.968000000000004</v>
       </c>
     </row>
@@ -30310,11 +32261,11 @@
         <v>31457280</v>
       </c>
       <c r="M19">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.581</v>
       </c>
       <c r="N19">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>34.018999999999998</v>
       </c>
     </row>
@@ -30338,11 +32289,11 @@
         <v>112639</v>
       </c>
       <c r="M20">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.72199999999999</v>
       </c>
       <c r="N20">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>34.07</v>
       </c>
     </row>
@@ -30372,11 +32323,11 @@
         <v>31457280</v>
       </c>
       <c r="M21">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.59699999999999</v>
       </c>
       <c r="N21">
-        <f ca="1">OFFSET(I26,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.97</v>
       </c>
     </row>
@@ -30400,11 +32351,11 @@
         <v>33971</v>
       </c>
       <c r="M22">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.611</v>
       </c>
       <c r="N22">
-        <f ca="1">OFFSET(I27,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.965000000000003</v>
       </c>
     </row>
@@ -30434,11 +32385,11 @@
         <v>31457280</v>
       </c>
       <c r="M23">
-        <f ca="1">OFFSET(I26,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.678</v>
       </c>
       <c r="N23">
-        <f ca="1">OFFSET(I28,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>34.125999999999998</v>
       </c>
     </row>
@@ -30462,11 +32413,11 @@
         <v>113233</v>
       </c>
       <c r="M24">
-        <f ca="1">OFFSET(I27,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.6</v>
       </c>
       <c r="N24">
-        <f ca="1">OFFSET(I29,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.966999999999999</v>
       </c>
     </row>
@@ -30496,11 +32447,11 @@
         <v>31457280</v>
       </c>
       <c r="M25">
-        <f ca="1">OFFSET(I28,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.571</v>
       </c>
       <c r="N25">
-        <f ca="1">OFFSET(I30,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.859000000000002</v>
       </c>
     </row>
@@ -30524,11 +32475,11 @@
         <v>33999</v>
       </c>
       <c r="M26">
-        <f ca="1">OFFSET(I29,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.622</v>
       </c>
       <c r="N26">
-        <f ca="1">OFFSET(I31,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.966999999999999</v>
       </c>
     </row>
@@ -30558,11 +32509,11 @@
         <v>31457280</v>
       </c>
       <c r="M27">
-        <f ca="1">OFFSET(I30,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.476</v>
       </c>
       <c r="N27">
-        <f ca="1">OFFSET(I32,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>33.941000000000003</v>
       </c>
     </row>
@@ -30586,11 +32537,11 @@
         <v>112619</v>
       </c>
       <c r="M28">
-        <f ca="1">OFFSET(I31,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.565</v>
       </c>
       <c r="N28">
-        <f ca="1">OFFSET(I33,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>34.085000000000001</v>
       </c>
     </row>
@@ -30620,11 +32571,11 @@
         <v>31457280</v>
       </c>
       <c r="M29">
-        <f ca="1">OFFSET(I32,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.283</v>
       </c>
       <c r="N29">
-        <f ca="1">OFFSET(I34,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.317</v>
       </c>
     </row>
@@ -32300,11 +34251,11 @@
         <v>524288000</v>
       </c>
       <c r="M13">
-        <f ca="1">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="M13:M25" ca="1" si="0">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
         <v>119.319</v>
       </c>
       <c r="N13">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="N13:N25" ca="1" si="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
         <v>48.183999999999997</v>
       </c>
     </row>
@@ -32328,11 +34279,11 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f ca="1">OFFSET(I17,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>114.42700000000001</v>
       </c>
       <c r="N14">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.594999999999999</v>
       </c>
     </row>
@@ -32362,11 +34313,11 @@
         <v>41943040</v>
       </c>
       <c r="M15">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>114.776</v>
       </c>
       <c r="N15">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.720999999999997</v>
       </c>
     </row>
@@ -32390,11 +34341,11 @@
         <v>119319</v>
       </c>
       <c r="M16">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>113.015</v>
       </c>
       <c r="N16">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.622999999999998</v>
       </c>
     </row>
@@ -32424,11 +34375,11 @@
         <v>41943040</v>
       </c>
       <c r="M17">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.503</v>
       </c>
       <c r="N17">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.65</v>
       </c>
     </row>
@@ -32452,11 +34403,11 @@
         <v>48184</v>
       </c>
       <c r="M18">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.297</v>
       </c>
       <c r="N18">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.651000000000003</v>
       </c>
     </row>
@@ -32486,11 +34437,11 @@
         <v>41943040</v>
       </c>
       <c r="M19">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.631</v>
       </c>
       <c r="N19">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.863</v>
       </c>
     </row>
@@ -32514,11 +34465,11 @@
         <v>114427</v>
       </c>
       <c r="M20">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.09099999999999</v>
       </c>
       <c r="N20">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.698</v>
       </c>
     </row>
@@ -32548,11 +34499,11 @@
         <v>41943040</v>
       </c>
       <c r="M21">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.313</v>
       </c>
       <c r="N21">
-        <f ca="1">OFFSET(I26,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.716999999999999</v>
       </c>
     </row>
@@ -32576,11 +34527,11 @@
         <v>46595</v>
       </c>
       <c r="M22">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.145</v>
       </c>
       <c r="N22">
-        <f ca="1">OFFSET(I27,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.72</v>
       </c>
     </row>
@@ -32610,11 +34561,11 @@
         <v>41943040</v>
       </c>
       <c r="M23">
-        <f ca="1">OFFSET(I26,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.16</v>
       </c>
       <c r="N23">
-        <f ca="1">OFFSET(I28,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.817999999999998</v>
       </c>
     </row>
@@ -32638,11 +34589,11 @@
         <v>114776</v>
       </c>
       <c r="M24">
-        <f ca="1">OFFSET(I27,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.126</v>
       </c>
       <c r="N24">
-        <f ca="1">OFFSET(I29,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>46.701000000000001</v>
       </c>
     </row>
@@ -32672,11 +34623,11 @@
         <v>41943040</v>
       </c>
       <c r="M25">
-        <f ca="1">OFFSET(I28,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>110.776</v>
       </c>
       <c r="N25">
-        <f ca="1">OFFSET(I30,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.215</v>
       </c>
     </row>
@@ -34079,11 +36030,11 @@
         <v>524288000</v>
       </c>
       <c r="M13">
-        <f ca="1">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="M13:M22" ca="1" si="0">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
         <v>126.739</v>
       </c>
       <c r="N13">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="N13:N22" ca="1" si="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
         <v>61.079000000000001</v>
       </c>
     </row>
@@ -34107,11 +36058,11 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f ca="1">OFFSET(I17,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>127.39100000000001</v>
       </c>
       <c r="N14">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59.24</v>
       </c>
     </row>
@@ -34141,11 +36092,11 @@
         <v>52428800</v>
       </c>
       <c r="M15">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>128.86699999999999</v>
       </c>
       <c r="N15">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59.256999999999998</v>
       </c>
     </row>
@@ -34169,11 +36120,11 @@
         <v>126739</v>
       </c>
       <c r="M16">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>122.943</v>
       </c>
       <c r="N16">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59.350999999999999</v>
       </c>
     </row>
@@ -34203,11 +36154,11 @@
         <v>52428800</v>
       </c>
       <c r="M17">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>118.239</v>
       </c>
       <c r="N17">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59.351999999999997</v>
       </c>
     </row>
@@ -34231,11 +36182,11 @@
         <v>61079</v>
       </c>
       <c r="M18">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>116.863</v>
       </c>
       <c r="N18">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59.502000000000002</v>
       </c>
     </row>
@@ -34265,11 +36216,11 @@
         <v>52428800</v>
       </c>
       <c r="M19">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>113.465</v>
       </c>
       <c r="N19">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59.177999999999997</v>
       </c>
     </row>
@@ -34293,11 +36244,11 @@
         <v>127391</v>
       </c>
       <c r="M20">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>113.48099999999999</v>
       </c>
       <c r="N20">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59.337000000000003</v>
       </c>
     </row>
@@ -34327,11 +36278,11 @@
         <v>52428800</v>
       </c>
       <c r="M21">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>113.38</v>
       </c>
       <c r="N21">
-        <f ca="1">OFFSET(I26,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59.143999999999998</v>
       </c>
     </row>
@@ -34355,11 +36306,11 @@
         <v>59240</v>
       </c>
       <c r="M22">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>113.041</v>
       </c>
       <c r="N22">
-        <f ca="1">OFFSET(I27,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>59.351999999999997</v>
       </c>
     </row>
@@ -35555,11 +37506,11 @@
         <v>524288000</v>
       </c>
       <c r="M13">
-        <f ca="1">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="M13:M21" ca="1" si="0">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
         <v>123.792</v>
       </c>
       <c r="N13">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="N13:N21" ca="1" si="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
         <v>74.635999999999996</v>
       </c>
     </row>
@@ -35583,11 +37534,11 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f ca="1">OFFSET(I17,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>123.532</v>
       </c>
       <c r="N14">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>72.256</v>
       </c>
     </row>
@@ -35617,11 +37568,11 @@
         <v>62914560</v>
       </c>
       <c r="M15">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>120.06699999999999</v>
       </c>
       <c r="N15">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>71.98</v>
       </c>
     </row>
@@ -35645,11 +37596,11 @@
         <v>123792</v>
       </c>
       <c r="M16">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>115.877</v>
       </c>
       <c r="N16">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>71.966999999999999</v>
       </c>
     </row>
@@ -35679,11 +37630,11 @@
         <v>62914560</v>
       </c>
       <c r="M17">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>112.559</v>
       </c>
       <c r="N17">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>72.137</v>
       </c>
     </row>
@@ -35707,11 +37658,11 @@
         <v>74636</v>
       </c>
       <c r="M18">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>112.465</v>
       </c>
       <c r="N18">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>72.063999999999993</v>
       </c>
     </row>
@@ -35741,11 +37692,11 @@
         <v>62914560</v>
       </c>
       <c r="M19">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>112.34399999999999</v>
       </c>
       <c r="N19">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>72.269000000000005</v>
       </c>
     </row>
@@ -35769,11 +37720,11 @@
         <v>123532</v>
       </c>
       <c r="M20">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>112.116</v>
       </c>
       <c r="N20">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>72.117000000000004</v>
       </c>
     </row>
@@ -35803,11 +37754,11 @@
         <v>62914560</v>
       </c>
       <c r="M21">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>111.61199999999999</v>
       </c>
       <c r="N21">
-        <f ca="1">OFFSET(I26,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.431000000000001</v>
       </c>
     </row>
@@ -36909,11 +38860,11 @@
         <v>524288000</v>
       </c>
       <c r="M13">
-        <f ca="1">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="M13:M20" ca="1" si="0">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
         <v>127.441</v>
       </c>
       <c r="N13">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="N13:N20" ca="1" si="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
         <v>87.808000000000007</v>
       </c>
     </row>
@@ -36937,11 +38888,11 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f ca="1">OFFSET(I17,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>129.703</v>
       </c>
       <c r="N14">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>84.876000000000005</v>
       </c>
     </row>
@@ -36971,11 +38922,11 @@
         <v>73400320</v>
       </c>
       <c r="M15">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>124.03700000000001</v>
       </c>
       <c r="N15">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>84.873999999999995</v>
       </c>
     </row>
@@ -36999,11 +38950,11 @@
         <v>127441</v>
       </c>
       <c r="M16">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>116.994</v>
       </c>
       <c r="N16">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>84.921999999999997</v>
       </c>
     </row>
@@ -37033,11 +38984,11 @@
         <v>73400320</v>
       </c>
       <c r="M17">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>113.377</v>
       </c>
       <c r="N17">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>84.81</v>
       </c>
     </row>
@@ -37061,11 +39012,11 @@
         <v>87808</v>
       </c>
       <c r="M18">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>113.619</v>
       </c>
       <c r="N18">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>84.882999999999996</v>
       </c>
     </row>
@@ -37095,11 +39046,11 @@
         <v>73400320</v>
       </c>
       <c r="M19">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>112.89400000000001</v>
       </c>
       <c r="N19">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>85.123999999999995</v>
       </c>
     </row>
@@ -37123,11 +39074,11 @@
         <v>129703</v>
       </c>
       <c r="M20">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>112.01900000000001</v>
       </c>
       <c r="N20">
-        <f ca="1">OFFSET(I25,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8.77</v>
       </c>
     </row>
@@ -38162,11 +40113,11 @@
         <v>524288000</v>
       </c>
       <c r="M13">
-        <f ca="1">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="M13:M19" ca="1" si="0">OFFSET(I16,(ROW()-13)*3,0)/1000</f>
         <v>144.99799999999999</v>
       </c>
       <c r="N13">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ref="N13:N19" ca="1" si="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
         <v>100.905</v>
       </c>
     </row>
@@ -38190,11 +40141,11 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f ca="1">OFFSET(I17,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>155.82499999999999</v>
       </c>
       <c r="N14">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>97.527000000000001</v>
       </c>
     </row>
@@ -38224,11 +40175,11 @@
         <v>83886080</v>
       </c>
       <c r="M15">
-        <f ca="1">OFFSET(I18,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>148.72399999999999</v>
       </c>
       <c r="N15">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>97.676000000000002</v>
       </c>
     </row>
@@ -38252,11 +40203,11 @@
         <v>144998</v>
       </c>
       <c r="M16">
-        <f ca="1">OFFSET(I19,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>135.18100000000001</v>
       </c>
       <c r="N16">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>97.58</v>
       </c>
     </row>
@@ -38286,11 +40237,11 @@
         <v>83886080</v>
       </c>
       <c r="M17">
-        <f ca="1">OFFSET(I20,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>120.15600000000001</v>
       </c>
       <c r="N17">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>97.498999999999995</v>
       </c>
     </row>
@@ -38314,11 +40265,11 @@
         <v>100905</v>
       </c>
       <c r="M18">
-        <f ca="1">OFFSET(I21,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>118.497</v>
       </c>
       <c r="N18">
-        <f ca="1">OFFSET(I23,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>97.7</v>
       </c>
     </row>
@@ -38348,11 +40299,11 @@
         <v>83886080</v>
       </c>
       <c r="M19">
-        <f ca="1">OFFSET(I22,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="0"/>
         <v>117.35599999999999</v>
       </c>
       <c r="N19">
-        <f ca="1">OFFSET(I24,(ROW()-13)*3,0)/1000</f>
+        <f t="shared" ca="1" si="1"/>
         <v>21.303000000000001</v>
       </c>
     </row>
@@ -42189,7 +44140,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
